--- a/src/test/resources/TestData/GasMileageTestData.xlsx
+++ b/src/test/resources/TestData/GasMileageTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huseyin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huseyin\IdeaProjects\chicago_10_cucumberjunit\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0DEEA-3397-4287-AB6B-8070D928DF41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E20031-48B9-4C5C-A70C-1C7F74DABC3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{38CC2EC7-2DAF-490F-AE41-3BCC39C36EC7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Execute</t>
   </si>
@@ -52,12 +52,61 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>PASS!</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:15:00.872</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:15:02.604</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:15:05.468</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:15:07.594</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:15:09.578</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:32:19.881</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:32:21.928</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:32:24.305</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:32:27.010</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:32:29.740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,15 +455,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -456,6 +505,18 @@
       <c r="D2">
         <v>75</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -470,6 +531,18 @@
       <c r="D3">
         <v>60</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -484,6 +557,18 @@
       <c r="D4">
         <v>150</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -498,10 +583,43 @@
       <c r="D5">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
